--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Mohamed Ahmed Nasr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Mohamed Mustafa Ali Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه الوليد محمد محمود الشناوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
     <x:t>1240058</x:t>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1290,7 +1299,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2186,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2203,6 +2212,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -195,15 +195,6 @@
     <x:t>Seif Haitham Magdy Fawzy</x:t>
   </x:si>
   <x:si>
-    <x:t>4250178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220254</x:t>
   </x:si>
   <x:si>
@@ -229,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Waleed Hamdy Mohamed Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240338</x:t>
@@ -1491,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45921.6115725694</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>1240012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد احمد عبدالحميد ابراهيم المسيري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210192</x:t>
   </x:si>
   <x:si>
@@ -238,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Abd ElRahman Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1230322</x:t>
@@ -524,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1075,7 +1093,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.0248507755</x:v>
+        <x:v>45922.5207153588</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1107,7 +1125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4169731481</x:v>
+        <x:v>45915.0248507755</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1139,7 +1157,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45907.4169731481</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1171,7 +1189,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.666140625</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1203,7 +1221,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.0199736458</x:v>
+        <x:v>45907.666140625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1235,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6681675116</x:v>
+        <x:v>45915.0199736458</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1267,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4474019329</x:v>
+        <x:v>45907.6681675116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45907.4474019329</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1331,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1363,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.6115725694</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45921.6115725694</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2227,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2244,6 +2262,70 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -258,6 +258,15 @@
     <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230322</x:t>
   </x:si>
   <x:si>
@@ -373,6 +382,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Ehab Ahmed Elbadawy Salem Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد فراج على محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240267</x:t>
@@ -542,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1733,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45924.4182136921</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2344,70 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,15 +141,6 @@
     <x:t>GANA MOHAMED AHMED ALI AHMED</x:t>
   </x:si>
   <x:si>
-    <x:t>1210212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنا محمد مصطفي علي محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Mohamed Mustafa Ali Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240220</x:t>
   </x:si>
   <x:si>
@@ -339,13 +330,19 @@
     <x:t>Mohamed Ahmed Mohamed Ahmed Nasr</x:t>
   </x:si>
   <x:si>
-    <x:t>4250195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
+    <x:t>1220078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جمال يونس احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Gamal Yones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -1335,7 +1332,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4474019329</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1364,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45921.6115725694</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.6115725694</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1972,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2004,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45927.423065625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2035,11 +2032,9 @@
       <x:c r="C36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45927.6331029745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,13 +2057,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6665660532</x:v>
@@ -2094,13 +2089,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45915.0220333681</x:v>
@@ -2126,13 +2121,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.6649521643</x:v>
@@ -2158,13 +2153,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.6650548611</x:v>
@@ -2190,13 +2185,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45924.4182136921</x:v>
@@ -2222,13 +2217,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6716284375</x:v>
@@ -2254,13 +2249,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45907.6658175579</x:v>
@@ -2286,13 +2281,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45907.6657707176</x:v>
@@ -2318,13 +2313,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.6646742245</x:v>
@@ -2350,13 +2345,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45907.6656088773</x:v>
@@ -2382,13 +2377,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45909.4243306713</x:v>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -69,15 +69,6 @@
     <x:t>Ahmed Hamada Saleh Abdalshafy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حمدي احمد ابراهيم على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240012</x:t>
   </x:si>
   <x:si>
@@ -193,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Seif Haitham Magdy Fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220254</x:t>
@@ -1076,7 +1076,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.7533798958</x:v>
+        <x:v>45922.5207153588</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1108,7 +1108,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45922.5207153588</x:v>
+        <x:v>45915.0248507755</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.0248507755</x:v>
+        <x:v>45907.4169731481</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1172,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4169731481</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1204,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45907.666140625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1236,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.666140625</x:v>
+        <x:v>45915.0199736458</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1268,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.0199736458</x:v>
+        <x:v>45907.6681675116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1300,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6681675116</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1332,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1364,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45928.4824051736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -1140,7 +1140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4169731481</x:v>
+        <x:v>45928.8568324074</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Aya Atef Mohamed Saad Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة جمال شريف فاضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1240213</x:t>
@@ -557,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1236,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.0199736458</x:v>
+        <x:v>45907.6681675116</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6681675116</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45928.4824051736</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.4824051736</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45921.6115725694</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.6115725694</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1931,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1963,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45927.423065625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2000,11 +1991,9 @@
       <x:c r="C35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45927.423065625</x:v>
+        <x:v>45927.6331029745</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,14 +2016,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45927.6331029745</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2066,7 +2057,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2098,7 +2089,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2130,7 +2121,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2162,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45924.4182136921</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2194,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45924.4182136921</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2226,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2258,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2313,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2345,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45909.4243306713</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2371,38 +2362,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45909.4243306713</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -415,6 +415,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Ayman Abdellatif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمد ابراهيم محمود بليطه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mohamed Ibrahim Mahmoud Balita</x:t>
   </x:si>
   <x:si>
     <x:t>1240396</x:t>
@@ -548,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2313,7 +2322,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45930.3373565162</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2362,6 +2371,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Raghad Ahmed Mostafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230147</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">رنا محمد رفاعى محمد رفاعى </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Mohamed Refaay Mohamed Refaay</x:t>
   </x:si>
   <x:si>
     <x:t>1230041</x:t>
@@ -557,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1332,7 +1341,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.4824051736</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45928.4824051736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.6115725694</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45921.6115725694</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1981,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.423065625</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2000,9 +2009,11 @@
       <x:c r="C35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.6331029745</x:v>
+        <x:v>45927.423065625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2025,16 +2036,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45927.6331029745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2066,7 +2075,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2098,7 +2107,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2130,7 +2139,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2162,7 +2171,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45924.4182136921</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2194,7 +2203,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45924.4182136921</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2226,7 +2235,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2258,7 +2267,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2299,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2331,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45930.3373565162</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45930.3373565162</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,6 +2412,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -342,7 +342,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -2041,7 +2044,9 @@
       <x:c r="C36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s"/>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
       <x:c r="E36" s="3">
         <x:v>45927.6331029745</x:v>
       </x:c>
@@ -2066,13 +2071,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6665660532</x:v>
@@ -2098,13 +2103,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45915.0220333681</x:v>
@@ -2130,13 +2135,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.6649521643</x:v>
@@ -2162,13 +2167,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.6650548611</x:v>
@@ -2194,13 +2199,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45924.4182136921</x:v>
@@ -2226,13 +2231,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6716284375</x:v>
@@ -2258,13 +2263,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45907.6658175579</x:v>
@@ -2290,13 +2295,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45907.6657707176</x:v>
@@ -2322,13 +2327,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.6646742245</x:v>
@@ -2354,13 +2359,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45930.3373565162</x:v>
@@ -2386,13 +2391,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45907.6656088773</x:v>
@@ -2418,13 +2423,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45909.4243306713</x:v>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -426,7 +426,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>4250198</x:t>

--- a/downloaded_files/MTHS104_Tutorial-35078.xlsx
+++ b/downloaded_files/MTHS104_Tutorial-35078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1113848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ابراهيم محمد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ibrahim Mohammed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240204</x:t>
@@ -569,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -879,7 +888,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.240625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1056,7 +1065,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4189959144</x:v>
+        <x:v>45943.5780837153</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45922.5207153588</x:v>
+        <x:v>45909.4189959144</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1120,7 +1129,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.0248507755</x:v>
+        <x:v>45922.5207153588</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1152,7 +1161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.8568324074</x:v>
+        <x:v>45915.0248507755</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1184,7 +1193,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45928.8568324074</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1216,7 +1225,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.666140625</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1248,7 +1257,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6681675116</x:v>
+        <x:v>45907.666140625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1280,7 +1289,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45907.6681675116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1312,7 +1321,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1344,7 +1353,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1376,7 +1385,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0223800579</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1408,7 +1417,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0213323727</x:v>
+        <x:v>45915.0223800579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1440,7 +1449,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.0196913194</x:v>
+        <x:v>45915.0213323727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1472,7 +1481,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4193611921</x:v>
+        <x:v>45915.0196913194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1504,7 +1513,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.4824051736</x:v>
+        <x:v>45909.4193611921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1536,7 +1545,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45928.4824051736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1568,7 +1577,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1600,7 +1609,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6665667477</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1632,7 +1641,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.6115725694</x:v>
+        <x:v>45907.6665667477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1664,7 +1673,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45921.6115725694</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1696,7 +1705,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1728,7 +1737,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,7 +1769,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0265881944</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,7 +1801,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146982986</x:v>
+        <x:v>45915.0265881944</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1824,7 +1833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.0255740741</x:v>
+        <x:v>45906.4146982986</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1856,7 +1865,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45915.0255740741</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1888,7 +1897,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1920,7 +1929,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1952,7 +1961,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4287435185</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1984,7 +1993,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45909.4287435185</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2016,7 +2025,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.423065625</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2048,7 +2057,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.6331029745</x:v>
+        <x:v>45927.423065625</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2080,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45927.6331029745</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.0220333681</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45915.0220333681</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45924.4182136921</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2249,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6716284375</x:v>
+        <x:v>45924.4182136921</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2281,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6716284375</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2313,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2377,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45930.3373565162</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2409,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45930.3373565162</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2441,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2449,6 +2458,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
